--- a/MTGbanlist.xlsx
+++ b/MTGbanlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Desktop\Python projects\MTGShare\magic-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D183594-C268-4A59-897E-835953223372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46B96F9-1A56-490E-8CB3-167BD820E752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2114,7 +2114,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2125,6 +2162,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87E2326D-9B71-4BBD-BCD3-E49169C5C090}" name="Table2" displayName="Table2" ref="A1:K91" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K91" xr:uid="{87E2326D-9B71-4BBD-BCD3-E49169C5C090}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{927659B9-B07A-480E-B359-B5BD865C2F25}" name="web-scraper-order" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{1524A54D-A6E2-4747-B897-502D52C97D13}" name="web-scraper-start-url" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5AA9EC39-762F-4D52-84F7-507BC33D391C}" name="name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{1104CF3A-D3EF-4F94-B22E-232B95FE2D23}" name="link-href" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B5CD124E-11A0-43FF-82CA-C63857870DF0}" name="cardText" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{AB21C503-F6E6-43C3-A917-6D041AE29972}" name="flavorText" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{52DFB8C7-E70C-4EE9-8C3C-808DE73D5DA0}" name="manaCost" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9FD874A4-1A01-4C68-B5B4-0839A781E36C}" name="manaCost-class" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{F9AD4EC2-FF1C-4F56-95B0-5089EC3671E7}" name="rarity" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{9E7F18B8-80F9-46D7-A7F1-9C84475ADE94}" name="cardImg-src" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4683EA0A-542F-4C7C-9986-9656B3FFD186}" name="cardType" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2447,12 +2504,23 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:K91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2522,7 +2590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2557,7 +2625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2592,7 +2660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -2627,7 +2695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2662,7 +2730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2697,7 +2765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2732,7 +2800,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2767,7 +2835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -2802,7 +2870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -2837,7 +2905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -2872,7 +2940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -2907,7 +2975,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -2942,7 +3010,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -2977,7 +3045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>120</v>
       </c>
@@ -3012,7 +3080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>129</v>
       </c>
@@ -3047,7 +3115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>135</v>
       </c>
@@ -3082,7 +3150,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>144</v>
       </c>
@@ -3117,7 +3185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>150</v>
       </c>
@@ -3152,7 +3220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
@@ -3187,7 +3255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -3222,7 +3290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
@@ -3257,7 +3325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
@@ -3292,7 +3360,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>184</v>
       </c>
@@ -3327,7 +3395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>192</v>
       </c>
@@ -3362,7 +3430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>199</v>
       </c>
@@ -3397,7 +3465,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>208</v>
       </c>
@@ -3432,7 +3500,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>217</v>
       </c>
@@ -3467,7 +3535,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>226</v>
       </c>
@@ -3502,7 +3570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>232</v>
       </c>
@@ -3537,7 +3605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>241</v>
       </c>
@@ -3572,7 +3640,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>247</v>
       </c>
@@ -3607,7 +3675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>253</v>
       </c>
@@ -3642,7 +3710,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>261</v>
       </c>
@@ -3677,7 +3745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>267</v>
       </c>
@@ -3712,7 +3780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>274</v>
       </c>
@@ -3747,7 +3815,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>280</v>
       </c>
@@ -3782,7 +3850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>286</v>
       </c>
@@ -3817,7 +3885,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>292</v>
       </c>
@@ -3852,7 +3920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>298</v>
       </c>
@@ -3887,7 +3955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>304</v>
       </c>
@@ -3922,7 +3990,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>312</v>
       </c>
@@ -3957,7 +4025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>318</v>
       </c>
@@ -3992,7 +4060,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>325</v>
       </c>
@@ -4027,7 +4095,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>334</v>
       </c>
@@ -4062,7 +4130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>340</v>
       </c>
@@ -4097,7 +4165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>347</v>
       </c>
@@ -4132,7 +4200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>354</v>
       </c>
@@ -4167,7 +4235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>361</v>
       </c>
@@ -4202,7 +4270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>367</v>
       </c>
@@ -4237,7 +4305,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>376</v>
       </c>
@@ -4272,7 +4340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>383</v>
       </c>
@@ -4307,7 +4375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>389</v>
       </c>
@@ -4342,7 +4410,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>396</v>
       </c>
@@ -4377,7 +4445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>402</v>
       </c>
@@ -4412,7 +4480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>409</v>
       </c>
@@ -4447,7 +4515,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>417</v>
       </c>
@@ -4482,7 +4550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>423</v>
       </c>
@@ -4517,7 +4585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>428</v>
       </c>
@@ -4552,7 +4620,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>437</v>
       </c>
@@ -4587,7 +4655,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>444</v>
       </c>
@@ -4622,7 +4690,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>452</v>
       </c>
@@ -4657,7 +4725,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>459</v>
       </c>
@@ -4692,7 +4760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>466</v>
       </c>
@@ -4727,7 +4795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>473</v>
       </c>
@@ -4762,7 +4830,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>480</v>
       </c>
@@ -4797,7 +4865,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>488</v>
       </c>
@@ -4832,7 +4900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>494</v>
       </c>
@@ -4867,7 +4935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>500</v>
       </c>
@@ -4902,7 +4970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>506</v>
       </c>
@@ -4937,7 +5005,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>515</v>
       </c>
@@ -4972,7 +5040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>521</v>
       </c>
@@ -5007,7 +5075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>528</v>
       </c>
@@ -5042,7 +5110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>535</v>
       </c>
@@ -5077,7 +5145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>541</v>
       </c>
@@ -5112,7 +5180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>549</v>
       </c>
@@ -5147,7 +5215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>556</v>
       </c>
@@ -5182,7 +5250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>562</v>
       </c>
@@ -5217,7 +5285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>569</v>
       </c>
@@ -5252,7 +5320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>576</v>
       </c>
@@ -5287,7 +5355,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>585</v>
       </c>
@@ -5322,7 +5390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>591</v>
       </c>
@@ -5357,7 +5425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>597</v>
       </c>
@@ -5392,7 +5460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>605</v>
       </c>
@@ -5427,7 +5495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>612</v>
       </c>
@@ -5462,7 +5530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>619</v>
       </c>
@@ -5497,7 +5565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>625</v>
       </c>
@@ -5532,7 +5600,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>632</v>
       </c>
@@ -5567,7 +5635,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>638</v>
       </c>
@@ -5602,7 +5670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>645</v>
       </c>
@@ -5639,5 +5707,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>